--- a/Documentatie/Kerntaak-2/2.1.2_Normalisatie/2017-05-04_Normalisatie_V1.xlsx
+++ b/Documentatie/Kerntaak-2/2.1.2_Normalisatie/2017-05-04_Normalisatie_V1.xlsx
@@ -1770,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentatie/Kerntaak-2/2.1.2_Normalisatie/2017-05-04_Normalisatie_V1.xlsx
+++ b/Documentatie/Kerntaak-2/2.1.2_Normalisatie/2017-05-04_Normalisatie_V1.xlsx
@@ -1770,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
